--- a/020-内部設計/023-クラス仕様書/013_商品検索/Servlet/クラス仕様書_MainServlet.xlsx
+++ b/020-内部設計/023-クラス仕様書/013_商品検索/Servlet/クラス仕様書_MainServlet.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C71C81B-52C8-4D9F-992F-97DBADBE658F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DD8E97-C0F8-4C50-8DD9-2757375F53D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2472" yWindow="1284" windowWidth="16656" windowHeight="10800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス仕様" sheetId="4" r:id="rId1"/>
@@ -454,22 +454,6 @@
   </si>
   <si>
     <t>メインサーブレット</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>商品検索画面へ遷移させるServletクラス</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>センイ</t>
-    </rPh>
     <phoneticPr fontId="5"/>
   </si>
   <si>
@@ -989,16 +973,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>4. 3. で取得した画面表示用データをリクエストスコープに保存。</t>
-    <rPh sb="7" eb="9">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="11" eb="15">
-      <t>ガメンヒョウジヨウ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>2. 画面表示用データ(表1.)を格納する変数を作成。</t>
     <rPh sb="3" eb="7">
       <t>ガメンヒョウジ</t>
@@ -1127,6 +1101,32 @@
   </si>
   <si>
     <t>入出力の失敗、または割り込みの発生によってサーブレットが投げる可能性のある例外</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>商品検索画面へ遷移</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>4. 3. で取得した画面表示用データをリクエストに保存。</t>
+    <rPh sb="7" eb="9">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>ガメンヒョウジヨウ</t>
+    </rPh>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -2899,8 +2899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IY32"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29:R29"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9:AE9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2931,7 +2931,7 @@
       <c r="P1" s="137"/>
       <c r="Q1" s="137"/>
       <c r="R1" s="136" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S1" s="136"/>
       <c r="T1" s="136"/>
@@ -2948,7 +2948,7 @@
       <c r="AC1" s="137"/>
       <c r="AD1" s="137"/>
       <c r="AE1" s="136" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AF1" s="136"/>
       <c r="AG1" s="136"/>
@@ -2967,7 +2967,7 @@
       <c r="AR1" s="137"/>
       <c r="AS1" s="137"/>
       <c r="AT1" s="136" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AU1" s="136"/>
       <c r="AV1" s="136"/>
@@ -3467,7 +3467,7 @@
       <c r="E4" s="132"/>
       <c r="F4" s="132"/>
       <c r="G4" s="133" t="s">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="H4" s="134"/>
       <c r="I4" s="134"/>
@@ -4207,7 +4207,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="142" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D17" s="142"/>
       <c r="E17" s="142"/>
@@ -4227,7 +4227,7 @@
       <c r="Q17" s="142"/>
       <c r="R17" s="143"/>
       <c r="S17" s="141" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T17" s="142"/>
       <c r="U17" s="142"/>
@@ -4245,7 +4245,7 @@
       <c r="AE17" s="160"/>
       <c r="AF17" s="161"/>
       <c r="AG17" s="155" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AH17" s="155"/>
       <c r="AI17" s="155"/>
@@ -4267,7 +4267,7 @@
       <c r="AY17" s="155"/>
       <c r="AZ17" s="156"/>
       <c r="BA17" s="157" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BB17" s="145"/>
       <c r="BC17" s="145"/>
@@ -4471,7 +4471,7 @@
       <c r="Y21" s="142"/>
       <c r="Z21" s="143"/>
       <c r="AA21" s="167" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB21" s="167"/>
       <c r="AC21" s="167"/>
@@ -4481,7 +4481,7 @@
       <c r="AE21" s="167"/>
       <c r="AF21" s="167"/>
       <c r="AG21" s="155" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH21" s="155"/>
       <c r="AI21" s="155"/>
@@ -4518,7 +4518,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="130" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D22" s="130"/>
       <c r="E22" s="130"/>
@@ -4528,7 +4528,7 @@
       <c r="I22" s="130"/>
       <c r="J22" s="131"/>
       <c r="K22" s="130" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L22" s="130"/>
       <c r="M22" s="130"/>
@@ -4595,7 +4595,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="130" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D23" s="130"/>
       <c r="E23" s="130"/>
@@ -4605,7 +4605,7 @@
       <c r="I23" s="130"/>
       <c r="J23" s="131"/>
       <c r="K23" s="130" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L23" s="130"/>
       <c r="M23" s="130"/>
@@ -4635,7 +4635,7 @@
       <c r="AE23" s="163"/>
       <c r="AF23" s="163"/>
       <c r="AG23" s="164" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AH23" s="164"/>
       <c r="AI23" s="164"/>
@@ -5239,7 +5239,7 @@
       <c r="Y27" s="125"/>
       <c r="Z27" s="125"/>
       <c r="AA27" s="126" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB27" s="127"/>
       <c r="AC27" s="127"/>
@@ -5512,7 +5512,7 @@
       <c r="Y28" s="125"/>
       <c r="Z28" s="125"/>
       <c r="AA28" s="126" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AB28" s="127"/>
       <c r="AC28" s="127"/>
@@ -5755,7 +5755,7 @@
         <v>3</v>
       </c>
       <c r="C29" s="121" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D29" s="122"/>
       <c r="E29" s="122"/>
@@ -5765,7 +5765,7 @@
       <c r="I29" s="122"/>
       <c r="J29" s="123"/>
       <c r="K29" s="124" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L29" s="122"/>
       <c r="M29" s="122"/>
@@ -5775,7 +5775,7 @@
       <c r="Q29" s="122"/>
       <c r="R29" s="123"/>
       <c r="S29" s="125" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="T29" s="125"/>
       <c r="U29" s="125"/>
@@ -5785,7 +5785,7 @@
       <c r="Y29" s="125"/>
       <c r="Z29" s="125"/>
       <c r="AA29" s="126" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AB29" s="127"/>
       <c r="AC29" s="127"/>
@@ -6028,7 +6028,7 @@
         <v>4</v>
       </c>
       <c r="C30" s="121" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D30" s="122"/>
       <c r="E30" s="122"/>
@@ -6038,7 +6038,7 @@
       <c r="I30" s="122"/>
       <c r="J30" s="123"/>
       <c r="K30" s="124" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L30" s="122"/>
       <c r="M30" s="122"/>
@@ -6048,7 +6048,7 @@
       <c r="Q30" s="122"/>
       <c r="R30" s="123"/>
       <c r="S30" s="125" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="T30" s="125"/>
       <c r="U30" s="125"/>
@@ -6058,7 +6058,7 @@
       <c r="Y30" s="125"/>
       <c r="Z30" s="125"/>
       <c r="AA30" s="126" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AB30" s="127"/>
       <c r="AC30" s="127"/>
@@ -6301,7 +6301,7 @@
         <v>5</v>
       </c>
       <c r="C31" s="121" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D31" s="122"/>
       <c r="E31" s="122"/>
@@ -6311,7 +6311,7 @@
       <c r="I31" s="122"/>
       <c r="J31" s="123"/>
       <c r="K31" s="121" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L31" s="122"/>
       <c r="M31" s="122"/>
@@ -6321,7 +6321,7 @@
       <c r="Q31" s="122"/>
       <c r="R31" s="123"/>
       <c r="S31" s="125" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T31" s="125"/>
       <c r="U31" s="125"/>
@@ -6331,7 +6331,7 @@
       <c r="Y31" s="125"/>
       <c r="Z31" s="125"/>
       <c r="AA31" s="126" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AB31" s="127"/>
       <c r="AC31" s="127"/>
@@ -6965,7 +6965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A140D5-1E8F-4942-AD38-9EDDCB34BE92}">
   <dimension ref="A1:IY41"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="S20" sqref="S20:Z20"/>
     </sheetView>
   </sheetViews>
@@ -7036,7 +7036,7 @@
       <c r="AR1" s="137"/>
       <c r="AS1" s="137"/>
       <c r="AT1" s="169" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AU1" s="169"/>
       <c r="AV1" s="169"/>
@@ -7528,7 +7528,7 @@
     </row>
     <row r="4" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="132" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" s="132"/>
       <c r="C4" s="132"/>
@@ -7793,7 +7793,7 @@
     </row>
     <row r="5" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="171" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" s="171"/>
       <c r="C5" s="171"/>
@@ -10555,7 +10555,7 @@
       <c r="I17" s="188"/>
       <c r="J17" s="189"/>
       <c r="K17" s="188" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L17" s="188"/>
       <c r="M17" s="188"/>
@@ -10581,7 +10581,7 @@
       <c r="AC17" s="186"/>
       <c r="AD17" s="187"/>
       <c r="AE17" s="190" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF17" s="164"/>
       <c r="AG17" s="164"/>
@@ -12342,7 +12342,7 @@
     <row r="24" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="71"/>
       <c r="B24" s="72" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C24" s="73"/>
       <c r="D24" s="73"/>
@@ -16845,8 +16845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:IY54"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="AA25" sqref="AA25:BG25"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="AG32" sqref="AG32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -16916,7 +16916,7 @@
       <c r="AR1" s="137"/>
       <c r="AS1" s="137"/>
       <c r="AT1" s="136" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AU1" s="136"/>
       <c r="AV1" s="136"/>
@@ -18765,7 +18765,7 @@
       <c r="Y9" s="193"/>
       <c r="Z9" s="193"/>
       <c r="AA9" s="194" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AB9" s="194"/>
       <c r="AC9" s="194"/>
@@ -19006,7 +19006,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="193" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" s="193"/>
       <c r="E10" s="193"/>
@@ -19036,7 +19036,7 @@
       <c r="Y10" s="193"/>
       <c r="Z10" s="193"/>
       <c r="AA10" s="194" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AB10" s="194"/>
       <c r="AC10" s="194"/>
@@ -20946,7 +20946,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="145" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D18" s="145"/>
       <c r="E18" s="145"/>
@@ -20956,7 +20956,7 @@
       <c r="I18" s="145"/>
       <c r="J18" s="146"/>
       <c r="K18" s="193" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L18" s="193"/>
       <c r="M18" s="193"/>
@@ -20966,7 +20966,7 @@
       <c r="Q18" s="193"/>
       <c r="R18" s="193"/>
       <c r="S18" s="193" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T18" s="193"/>
       <c r="U18" s="193"/>
@@ -20984,7 +20984,7 @@
       </c>
       <c r="AD18" s="198"/>
       <c r="AE18" s="199" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AF18" s="155"/>
       <c r="AG18" s="155"/>
@@ -21223,7 +21223,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="145" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D19" s="145"/>
       <c r="E19" s="145"/>
@@ -21233,7 +21233,7 @@
       <c r="I19" s="145"/>
       <c r="J19" s="146"/>
       <c r="K19" s="193" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L19" s="193"/>
       <c r="M19" s="193"/>
@@ -21243,7 +21243,7 @@
       <c r="Q19" s="193"/>
       <c r="R19" s="193"/>
       <c r="S19" s="193" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T19" s="193"/>
       <c r="U19" s="193"/>
@@ -21261,7 +21261,7 @@
       </c>
       <c r="AD19" s="198"/>
       <c r="AE19" s="199" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF19" s="155"/>
       <c r="AG19" s="155"/>
@@ -21500,7 +21500,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="145" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D20" s="145"/>
       <c r="E20" s="145"/>
@@ -21510,7 +21510,7 @@
       <c r="I20" s="145"/>
       <c r="J20" s="146"/>
       <c r="K20" s="193" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L20" s="193"/>
       <c r="M20" s="193"/>
@@ -21520,7 +21520,7 @@
       <c r="Q20" s="193"/>
       <c r="R20" s="193"/>
       <c r="S20" s="193" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T20" s="193"/>
       <c r="U20" s="193"/>
@@ -21538,7 +21538,7 @@
       </c>
       <c r="AD20" s="198"/>
       <c r="AE20" s="199" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AF20" s="155"/>
       <c r="AG20" s="155"/>
@@ -22602,7 +22602,7 @@
       <c r="Y24" s="125"/>
       <c r="Z24" s="125"/>
       <c r="AA24" s="177" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AB24" s="177"/>
       <c r="AC24" s="177"/>
@@ -22873,7 +22873,7 @@
       <c r="Y25" s="125"/>
       <c r="Z25" s="125"/>
       <c r="AA25" s="177" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB25" s="177"/>
       <c r="AC25" s="177"/>
@@ -23114,7 +23114,7 @@
         <v>3</v>
       </c>
       <c r="C26" s="121" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D26" s="122"/>
       <c r="E26" s="122"/>
@@ -23124,7 +23124,7 @@
       <c r="I26" s="122"/>
       <c r="J26" s="123"/>
       <c r="K26" s="124" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L26" s="122"/>
       <c r="M26" s="122"/>
@@ -23134,7 +23134,7 @@
       <c r="Q26" s="122"/>
       <c r="R26" s="123"/>
       <c r="S26" s="125" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="T26" s="125"/>
       <c r="U26" s="125"/>
@@ -23144,7 +23144,7 @@
       <c r="Y26" s="125"/>
       <c r="Z26" s="125"/>
       <c r="AA26" s="177" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AB26" s="177"/>
       <c r="AC26" s="177"/>
@@ -23385,7 +23385,7 @@
         <v>4</v>
       </c>
       <c r="C27" s="121" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D27" s="122"/>
       <c r="E27" s="122"/>
@@ -23395,7 +23395,7 @@
       <c r="I27" s="122"/>
       <c r="J27" s="123"/>
       <c r="K27" s="124" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L27" s="122"/>
       <c r="M27" s="122"/>
@@ -23405,7 +23405,7 @@
       <c r="Q27" s="122"/>
       <c r="R27" s="123"/>
       <c r="S27" s="125" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="T27" s="125"/>
       <c r="U27" s="125"/>
@@ -23415,7 +23415,7 @@
       <c r="Y27" s="125"/>
       <c r="Z27" s="125"/>
       <c r="AA27" s="126" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AB27" s="127"/>
       <c r="AC27" s="127"/>
@@ -23656,7 +23656,7 @@
         <v>5</v>
       </c>
       <c r="C28" s="121" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D28" s="122"/>
       <c r="E28" s="122"/>
@@ -23666,7 +23666,7 @@
       <c r="I28" s="122"/>
       <c r="J28" s="123"/>
       <c r="K28" s="121" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L28" s="122"/>
       <c r="M28" s="122"/>
@@ -23676,7 +23676,7 @@
       <c r="Q28" s="122"/>
       <c r="R28" s="123"/>
       <c r="S28" s="125" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T28" s="125"/>
       <c r="U28" s="125"/>
@@ -23686,7 +23686,7 @@
       <c r="Y28" s="125"/>
       <c r="Z28" s="125"/>
       <c r="AA28" s="177" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AB28" s="177"/>
       <c r="AC28" s="177"/>
@@ -24447,7 +24447,7 @@
     <row r="31" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30"/>
       <c r="B31" s="31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C31" s="32"/>
       <c r="D31" s="32"/>
@@ -24969,7 +24969,7 @@
     <row r="33" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="98"/>
       <c r="B33" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -25492,7 +25492,7 @@
       <c r="A35" s="30"/>
       <c r="B35" s="17"/>
       <c r="C35" s="43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D35" s="43"/>
       <c r="E35" s="43"/>
@@ -25754,14 +25754,14 @@
       <c r="A36" s="30"/>
       <c r="B36" s="17"/>
       <c r="C36" s="103" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D36" s="104"/>
       <c r="E36" s="104"/>
       <c r="F36" s="104"/>
       <c r="G36" s="105"/>
       <c r="H36" s="104" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I36" s="104"/>
       <c r="J36" s="104"/>
@@ -26018,14 +26018,14 @@
       <c r="A37" s="30"/>
       <c r="B37" s="17"/>
       <c r="C37" s="108" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D37" s="109"/>
       <c r="E37" s="109"/>
       <c r="F37" s="109"/>
       <c r="G37" s="110"/>
       <c r="H37" s="109" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I37" s="111"/>
       <c r="J37" s="111"/>
@@ -26282,14 +26282,14 @@
       <c r="A38" s="30"/>
       <c r="B38" s="17"/>
       <c r="C38" s="113" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D38" s="114"/>
       <c r="E38" s="114"/>
       <c r="F38" s="114"/>
       <c r="G38" s="115"/>
       <c r="H38" s="114" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I38" s="116"/>
       <c r="J38" s="116"/>
@@ -26785,7 +26785,7 @@
     <row r="40" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="30"/>
       <c r="B40" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="5"/>
@@ -27037,7 +27037,7 @@
     <row r="41" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="30"/>
       <c r="B41" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="5"/>
@@ -27539,7 +27539,7 @@
     <row r="43" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="30"/>
       <c r="B43" s="17" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="5"/>
@@ -28060,7 +28060,7 @@
     <row r="45" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="30"/>
       <c r="B45" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="5"/>
@@ -28842,7 +28842,7 @@
     <row r="48" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="30"/>
       <c r="B48" s="181" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C48" s="182"/>
       <c r="D48" s="182"/>
@@ -29104,7 +29104,7 @@
     <row r="49" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="30"/>
       <c r="B49" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C49" s="73"/>
       <c r="D49" s="73"/>
@@ -30777,7 +30777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C733705-1456-4322-AA78-F1FBBCAAF8A6}">
   <dimension ref="A1:IY44"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="BF37" sqref="BF37"/>
     </sheetView>
   </sheetViews>
@@ -31612,7 +31612,7 @@
       <c r="E5" s="171"/>
       <c r="F5" s="171"/>
       <c r="G5" s="172" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H5" s="172"/>
       <c r="I5" s="172"/>
@@ -32874,7 +32874,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="125" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" s="125"/>
       <c r="E10" s="125"/>
@@ -32904,7 +32904,7 @@
       <c r="Y10" s="125"/>
       <c r="Z10" s="125"/>
       <c r="AA10" s="177" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AB10" s="177"/>
       <c r="AC10" s="177"/>
@@ -34618,7 +34618,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="130" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D18" s="130"/>
       <c r="E18" s="130"/>
@@ -34628,7 +34628,7 @@
       <c r="I18" s="130"/>
       <c r="J18" s="131"/>
       <c r="K18" s="130" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L18" s="130"/>
       <c r="M18" s="130"/>
@@ -34638,7 +34638,7 @@
       <c r="Q18" s="130"/>
       <c r="R18" s="131"/>
       <c r="S18" s="130" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T18" s="130"/>
       <c r="U18" s="130"/>
@@ -34656,7 +34656,7 @@
       </c>
       <c r="AD18" s="187"/>
       <c r="AE18" s="190" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AF18" s="164"/>
       <c r="AG18" s="164"/>
@@ -34891,7 +34891,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="130" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D19" s="130"/>
       <c r="E19" s="130"/>
@@ -34901,7 +34901,7 @@
       <c r="I19" s="130"/>
       <c r="J19" s="131"/>
       <c r="K19" s="130" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L19" s="130"/>
       <c r="M19" s="130"/>
@@ -34911,7 +34911,7 @@
       <c r="Q19" s="130"/>
       <c r="R19" s="131"/>
       <c r="S19" s="130" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T19" s="130"/>
       <c r="U19" s="130"/>
@@ -34929,7 +34929,7 @@
       </c>
       <c r="AD19" s="187"/>
       <c r="AE19" s="190" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AF19" s="164"/>
       <c r="AG19" s="164"/>
@@ -35982,7 +35982,7 @@
       <c r="Y23" s="125"/>
       <c r="Z23" s="125"/>
       <c r="AA23" s="177" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AB23" s="177"/>
       <c r="AC23" s="177"/>
@@ -36251,7 +36251,7 @@
       <c r="Y24" s="125"/>
       <c r="Z24" s="125"/>
       <c r="AA24" s="177" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AB24" s="177"/>
       <c r="AC24" s="177"/>
@@ -36957,7 +36957,7 @@
     <row r="27" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="71"/>
       <c r="B27" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C27" s="73"/>
       <c r="D27" s="73"/>
@@ -37448,7 +37448,7 @@
     <row r="29" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
       <c r="B29" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BF29" s="77"/>
       <c r="BG29" s="77"/>
@@ -37656,7 +37656,7 @@
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
       <c r="C30" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BF30" s="77"/>
       <c r="BG30" s="77"/>
@@ -37864,7 +37864,7 @@
       <c r="A31" s="71"/>
       <c r="B31" s="17"/>
       <c r="D31" s="77" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E31" s="77"/>
       <c r="F31" s="77"/>
@@ -38383,7 +38383,7 @@
     <row r="33" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="71"/>
       <c r="B33" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="77"/>
       <c r="E33" s="77"/>
@@ -51631,21 +51631,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100F5656D937027614D93C88AB71AE3D10C" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b60c200d0ae5f270a77b0ce61d313f15">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="75fae816-41bf-471e-909f-5205fc9f8b57" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="893732230ae29545b6addaf499a489b1" ns2:_="">
     <xsd:import namespace="75fae816-41bf-471e-909f-5205fc9f8b57"/>
@@ -51777,15 +51768,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1E88503-2BF5-4213-82B7-01925F2C7A20}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFC473E1-630C-47C0-8277-41F4549C3C72}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -51794,7 +51786,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27446016-DB91-4EAC-B347-E10B099FE93C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -51810,4 +51802,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1E88503-2BF5-4213-82B7-01925F2C7A20}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>